--- a/PressureV.xlsx
+++ b/PressureV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA5355D-B610-402A-A038-B82CDE274EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C795D73C-32DC-4A17-A4B3-884A54FD6104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B8B87F-2ACF-4CB7-86FD-C4A2E0E04265}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>temperature_c</t>
   </si>
   <si>
-    <t>pressure _bar</t>
-  </si>
-  <si>
     <t>entropy_J_gK</t>
   </si>
   <si>
@@ -59,7 +56,10 @@
     <t>u_kJ_kg</t>
   </si>
   <si>
-    <t>enthalpy_ kJ_kg</t>
+    <t>pressure_bar</t>
+  </si>
+  <si>
+    <t>enthalpy_kJ_kg</t>
   </si>
 </sst>
 </file>
@@ -451,47 +451,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D2022-ECD5-4BF9-A1D6-28DA31D134A2}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="4" width="23.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -514,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -537,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1.2</v>
       </c>
@@ -560,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1.3</v>
       </c>
@@ -583,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1.4</v>
       </c>
@@ -606,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1.5</v>
       </c>
@@ -629,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1.6</v>
       </c>
@@ -652,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1.7</v>
       </c>
@@ -675,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1.8</v>
       </c>
@@ -698,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1.9</v>
       </c>
@@ -721,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -744,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2.1</v>
       </c>
@@ -767,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -790,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -813,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2.4</v>
       </c>
@@ -859,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2.6</v>
       </c>
@@ -882,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2.7</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2.8</v>
       </c>
@@ -928,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2.9</v>
       </c>
@@ -951,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -974,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>3.5</v>
       </c>
@@ -997,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>4.5</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>5.5</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>10</v>
       </c>
@@ -2701,6 +2702,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
